--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D284DDD-9C5F-4FD0-A7BA-B5492FC45EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91777910-4FC1-498A-A2BF-797A2A771C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF1F2A2D-9C4B-45D9-8654-0BC1EC11460E}"/>
+    <workbookView xWindow="3090" yWindow="2640" windowWidth="17565" windowHeight="11475" xr2:uid="{BF1F2A2D-9C4B-45D9-8654-0BC1EC11460E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Answer</t>
   </si>
@@ -123,12 +123,6 @@
 и найти новые возможности"]</t>
   </si>
   <si>
-    <t>{"Нарисуй пейзаж с горой на фоне заката, с речкой и деревьями.": 2,
-"Нарисуй пейзаж с величественной горой на закате, которая отражается в спокойной речке, окруженной зелеными деревьями и цветущими кустами.": 3,
-"Нарисуй величественную гору с острыми пиками и снежной вершиной на фоне яркого заката с оранжево-розовыми облаками. У подножья горы протекает кристально чистая речка. По берегам реки цветут яркие полевые цветы. Атмосфера спокойствия, легкий ветерок с пением птиц на заднем плане.": 1
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Откройте сервис 300.ya. В качестве запроса введите текст: Расскажи коротко и лаконично, как искусственный интеллект можно использовать для подготовки домашнего задания.
 Какой результат у вас получился? Выберите один из предложенных вариантов ответа. </t>
   </si>
@@ -187,12 +181,192 @@
   <si>
     <t>Контент, содержащий оскорбления.</t>
   </si>
+  <si>
+    <t>{"Нарисуй пейзаж с горой на фоне заката, с речкой и деревьями.": 1,
+"Нарисуй пейзаж с величественной горой на закате, которая отражается в спокойной речке, окруженной зелеными деревьями и цветущими кустами.": 3,
+"Нарисуй величественную гору с острыми пиками и снежной вершиной на фоне яркого заката с оранжево-розовыми облаками. У подножья горы протекает кристально чистая речка. По берегам реки цветут яркие полевые цветы. Атмосфера спокойствия, легкий ветерок с пением птиц на заднем плане.": 2
+}</t>
+  </si>
+  <si>
+    <t>Какой промпт нужно составить для того, чтобы получить подробную информацию о голосовом вводе?
+Проверьте свой ответ в GigaChat. </t>
+  </si>
+  <si>
+    <t>Расскажи, как работает голосовой ввод, включая технологии и примеры использования.</t>
+  </si>
+  <si>
+    <t>Какие темы нужно указать в промпте, чтобы получить подробную
+информацию о биометрических данных?
+Проверьте свой ответ в Giga Chat.</t>
+  </si>
+  <si>
+    <t>["Применение в различных отраслях",
+"Этические вопросы",
+"Виды биометрических данных"]</t>
+  </si>
+  <si>
+    <t>Как можно повысить безопасность ваших биометрических данных?</t>
+  </si>
+  <si>
+    <t>Включать дополнительные методы защиты.</t>
+  </si>
+  <si>
+    <t>Выберите сервисы, которые используют рекомендательные системы. Задайте промпт, который даст подробную информацию про каждый  из предложенных вариантов ответа. </t>
+  </si>
+  <si>
+    <t>["Cоциальные сети",
+"Интернет-магазины"]</t>
+  </si>
+  <si>
+    <t>Задайте вопрос в GigaChat, чтобы узнать, в какой сфере жизни невозможно применение искусственного интеллекта (ИИ). Выберите наиболее подходящий ответ.</t>
+  </si>
+  <si>
+    <t>Управление ситуациями с высокой степенью неопределенности</t>
+  </si>
+  <si>
+    <t>Какой из перечисленных вариантов является одним из основных компонентов речи?</t>
+  </si>
+  <si>
+    <t>Фоносемантика</t>
+  </si>
+  <si>
+    <t>Сопоставьте части структуры промпта и ее значения. Затем проверьте этот промпт в YandexGPT.</t>
+  </si>
+  <si>
+    <t>{"Ты участник научной конференции и должен подготовить доклад о достижениях в области искусственного интеллекта.": "общая инструкция",
+"Подготовь публичное выступление на тему недавних прорывов в искусственном интеллекте.": "запрос пользователя",
+"Яндекс разработал новую языковую модель YandexGPT, которая может генерировать тексты разных жанров и стилей.  «Газпром нефть» запустила первую в России цифровую систему создания многокомпонентных рецептур моторных масел с помощью искусственного интеллекта.": "контекст",
+"Подготовь текст с введением, основными достижениями и их влиянием, а также напиши заключение.": "формат ответа"}</t>
+  </si>
+  <si>
+    <t>Промпт: «Как ИИ может применяться в будущем в различных сферах, действуй пошагово и объясняй каждый шаг» 
+Выберите ответ, который больше похож на ответ нейросети. А затем проверьте этот промпт в YandexGPT.</t>
+  </si>
+  <si>
+    <t>ИИ может применяться в различных сферах. Направления: .Автоматизация
+процессов: ИИ автоматизирует рутинные задачи. 2. Образование: ИИ
+предоставляет персонализированные учебные материалы, оценивает знания
+и даёт рекомендации по улучшению обучения. 3. Развитие новых технологий:
+ИИ способствует развитию автономных транспортных средств, роботов-
+помощников и других технологий, улучшая качество жизни людей. Внедрение
+ИИ требует тщательного контроля для обеспечения безопасности его
+использования.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие компоненты входят в структуру промпта?
+</t>
+  </si>
+  <si>
+    <t>Общая инструкция, запрос пользователя, контекст, формат ответа</t>
+  </si>
+  <si>
+    <t>Создайте промпт для нейросети и узнайте, какое из перечисленных направлений машинного обучения наиболее часто используется для обработки голосовых сообщений.</t>
+  </si>
+  <si>
+    <t>Глубокое обучение</t>
+  </si>
+  <si>
+    <t>Учитель предложил составить план презентации про новостные агрегаторы. Какой промпт поможет получить наиболее точный результат? Проверьте свой ответ с помощью GigaСhat.</t>
+  </si>
+  <si>
+    <t>Составь план презентации о новостных агрегаторах, включая их функции, влияние на информационное пространство и перспективы развития.</t>
+  </si>
+  <si>
+    <t>Какие из следующих факторов могут быть причиной ошибок расшифровки голосовых сообщений?</t>
+  </si>
+  <si>
+    <t>Быстрая речь, тихая речь, посторонние шумы</t>
+  </si>
+  <si>
+    <t>Какой промпт подходит к этому созданному фильтруму? Примените промпт в приложении Шедеврум для его создания. </t>
+  </si>
+  <si>
+    <t>Измени фото кота в стиле русских сказок и укрась его цветами.</t>
+  </si>
+  <si>
+    <t>Какой промпт следует использовать, чтобы результат был представлен в виде таблицы? Проверьте этот промпт в YandexGPT.</t>
+  </si>
+  <si>
+    <t>Составь новогоднее меню с описанием блюд и рецептами з виде таблицы.</t>
+  </si>
+  <si>
+    <t>Что такое глубокое обучение?</t>
+  </si>
+  <si>
+    <t>Это разновидность машинного обучения с использованием многослойных нейронных сетей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Составьте промпт таким образом, чтобы определить, что из перечисленного НЕ рассматривается в "Кодексе этики в сфере ИИ". Выберите подходящий ответ. </t>
+  </si>
+  <si>
+    <t>["Экологические последствия разработки ИИ.",
+"Оценка экономической эффективности применения ИИ."]</t>
+  </si>
+  <si>
+    <t>В кодексе этики ИИ используется термин «акторы ИИ» Выберите из предложенных вариантов промпт, который наиболее подходит для того, чтобы получить информацию об этом термине. Проверьте этот промпт в YandexGPT.</t>
+  </si>
+  <si>
+    <t>Что означает термин «акторы ИИ» в кодексе этики искусственного интеллекта?</t>
+  </si>
+  <si>
+    <t>Что такое суммаризация?</t>
+  </si>
+  <si>
+    <t>Это процесс сокращения большого объема информации до более короткого и простого для понимания вида.</t>
+  </si>
+  <si>
+    <t>Представьте, что вам нужно узнать, как рекомендательные системы применяются в школьном образовании. Какой промпт вы выберете, чтобы получить подробное и понятное объяснение? Примените его в YandexGPT.</t>
+  </si>
+  <si>
+    <t>Как рекомендательные системы используют в школьном образовании? Рассказывай детально и простым языком.</t>
+  </si>
+  <si>
+    <t>Сопоставьте вопросы и ответы интервью на тему развития soft skills у
+школьников.
+Попробуйте самостоятельно задать эти вопросы YandexGPT или GigaChat.
+Примечание: Оответы могут повторяться.</t>
+  </si>
+  <si>
+    <t>{"Какие основные soft skills, на ваш взгляд, должны развивать школьники?": "Школьники должны развивать основные soft skills, такие как коммуникация, командная работа, критическое мышление, лидерство и решение проблем, через проекты, групповые задания, дискуссии и участие в школьных мероприятиях",
+"Какое значение имеют внеклассные активности, такие как клубы и соревнования, в развитии soft skills у школьников?": "Внеклассные активности способствуют практике навыков, развивая командные и лидерские качества, публичные выступления и стрессоустойчивость.",
+"С какими сложностями сталкиваются школы при внедрении soft skills в обучение и как их можно преодолеть?": "Проблемы внедрения soft skills в учебную программу, такие как нехватка времени и подготовленных учителей, можно решить через интеграцию в предметы, проектные задания и профессиональное развитие педагогов.",
+"Как можно решить проблемы внедрения «гибких навыков» в учебную программу?": "Проблемы внедрения soft skills в учебную программу, такие как нехватка времени и подготовленных учителей, можно решить через интеграцию в предметы, проектные задания и профессиональное развитие педагогов."}</t>
+  </si>
+  <si>
+    <t>Что из перечисленного является примером современных технологий обучения, которые могут адаптироваться к потребностям каждого ученика?</t>
+  </si>
+  <si>
+    <t>Адаптивные учебные приложения</t>
+  </si>
+  <si>
+    <t>Какой промпт нужно составить для того, чтобы получить подробную информацию об использовании искусственного интеллекта в образовании? Проверьте ответ в GigaChat.</t>
+  </si>
+  <si>
+    <t>Расскажи, как искусственный интеллект помогает в образовании, включая технологии и примеры использования (например, адаптивное обучение, интеллектуальные репетиторы).</t>
+  </si>
+  <si>
+    <t>Вы хотите создать контент-план, какие элементы нужно учитывать, чтобы задать грамотный промпт? Проверьте свой ответ с помощью ЯндексGPT</t>
+  </si>
+  <si>
+    <t>["целевая аудитория",
+"тематика и цель контента",
+"формат контента"]</t>
+  </si>
+  <si>
+    <t>Что такое контент-план?</t>
+  </si>
+  <si>
+    <t>План публикации на сайте или страничке в соцсетях статей, видео или картинок.</t>
+  </si>
+  <si>
+    <t>Текст коротковат. Для пересказа нужно хотя бы 300 символов.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +377,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color rgb="FF404040"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -229,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,9 +421,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C34C7C5-F51B-470A-A93C-4CA6115CC274}" name="Таблица1" displayName="Таблица1" ref="A1:C25" totalsRowShown="0">
-  <autoFilter ref="A1:C25" xr:uid="{6C34C7C5-F51B-470A-A93C-4CA6115CC274}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C34C7C5-F51B-470A-A93C-4CA6115CC274}" name="Таблица1" displayName="Таблица1" ref="A1:C43" totalsRowShown="0">
+  <autoFilter ref="A1:C43" xr:uid="{6C34C7C5-F51B-470A-A93C-4CA6115CC274}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D579F95E-6587-450B-A88D-B8DA92286150}" name="Description"/>
     <tableColumn id="2" xr3:uid="{83EBE134-5286-4B7F-85C0-269DFF7E05AB}" name="Homework"/>
@@ -270,9 +455,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +495,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +601,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,20 +751,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E6EE1A-A62F-4910-B7B7-3C67F551FB85}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -590,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -612,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -645,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -656,7 +841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -667,7 +852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -678,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -689,103 +874,367 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>5944</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B12">
         <v>5944</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
       </c>
       <c r="B13">
         <v>5944</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>5945</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B15">
         <v>5945</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
       </c>
       <c r="B16">
         <v>5945</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B17">
         <v>5946</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="B18">
         <v>5946</v>
       </c>
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
       </c>
       <c r="B19">
         <v>5946</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>5947</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>5947</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>5947</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>5948</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>5948</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>5948</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>5949</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>5949</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>5949</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>5950</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>5950</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>5950</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>5951</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <v>5951</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>5951</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>5952</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>5952</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>5952</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>5953</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>5953</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>5953</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>5954</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>5954</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43">
+        <v>5954</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91777910-4FC1-498A-A2BF-797A2A771C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7213AFD-B076-4614-A741-708ADBD14C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="2640" windowWidth="17565" windowHeight="11475" xr2:uid="{BF1F2A2D-9C4B-45D9-8654-0BC1EC11460E}"/>
   </bookViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E6EE1A-A62F-4910-B7B7-3C67F551FB85}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7213AFD-B076-4614-A741-708ADBD14C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24177281-6A48-4533-94C4-06F6B869CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="2640" windowWidth="17565" windowHeight="11475" xr2:uid="{BF1F2A2D-9C4B-45D9-8654-0BC1EC11460E}"/>
   </bookViews>
@@ -182,12 +182,6 @@
     <t>Контент, содержащий оскорбления.</t>
   </si>
   <si>
-    <t>{"Нарисуй пейзаж с горой на фоне заката, с речкой и деревьями.": 1,
-"Нарисуй пейзаж с величественной горой на закате, которая отражается в спокойной речке, окруженной зелеными деревьями и цветущими кустами.": 3,
-"Нарисуй величественную гору с острыми пиками и снежной вершиной на фоне яркого заката с оранжево-розовыми облаками. У подножья горы протекает кристально чистая речка. По берегам реки цветут яркие полевые цветы. Атмосфера спокойствия, легкий ветерок с пением птиц на заднем плане.": 2
-}</t>
-  </si>
-  <si>
     <t>Какой промпт нужно составить для того, чтобы получить подробную информацию о голосовом вводе?
 Проверьте свой ответ в GigaChat. </t>
   </si>
@@ -360,6 +354,11 @@
   </si>
   <si>
     <t>Текст коротковат. Для пересказа нужно хотя бы 300 символов.</t>
+  </si>
+  <si>
+    <t>{"Нарисуй пейзаж с горой на фоне заката, с речкой и деревьями.": 2,
+"Нарисуй пейзаж с величественной горой на закате, которая отражается в спокойной речке, окруженной зелеными деревьями и цветущими кустами.": 3,
+"Нарисуй величественную гору с острыми пиками и снежной вершиной на фоне яркого заката с оранжево-розовыми облаками. У подножья горы протекает кристально чистая речка. По берегам реки цветут яркие полевые цветы. Атмосфера спокойствия, легкий ветерок с пением птиц на заднем плане.": 1}</t>
   </si>
 </sst>
 </file>
@@ -753,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E6EE1A-A62F-4910-B7B7-3C67F551FB85}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -882,7 +881,7 @@
         <v>5944</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -893,7 +892,7 @@
         <v>5944</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -975,266 +974,266 @@
     </row>
     <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>5947</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>5947</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>5947</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>5948</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>5948</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>5948</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>5949</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>5949</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>5949</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>5950</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>5950</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>5950</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>5951</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>5951</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>5951</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>5952</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>5952</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>5952</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>5953</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39">
         <v>5953</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>5953</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>5954</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>5954</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>5954</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\super-waffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24177281-6A48-4533-94C4-06F6B869CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345FF2A-35B8-4FC3-9F43-340DE596D409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="2640" windowWidth="17565" windowHeight="11475" xr2:uid="{BF1F2A2D-9C4B-45D9-8654-0BC1EC11460E}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
